--- a/2020-21second.xlsx
+++ b/2020-21second.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51FAF5-F959-405F-8BD2-3CF40587CFDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1周" sheetId="43" r:id="rId1"/>
@@ -29,17 +28,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6周'!$B$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'9周 '!$B$2:$J$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{49A70DE6-7C14-4841-AD0A-72D916A042A9}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{3B242DC3-41FF-41B7-BB9E-52B861222D02}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{6C5F4AD5-B272-4930-B4BE-9279DDBDD217}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{C53765DC-F984-4CF8-88C5-A1B03334216C}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{DAD121A6-AB62-41FA-9D31-920EB9631A4C}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{29119021-E573-40CB-A5C9-A047C6BA0FE9}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{58C4DE8A-EDCB-456C-A8B5-7E8AF5A29EC5}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{8CB6D6F4-CD41-4817-84DA-E34DBC6B5891}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{0B5E8022-D0A9-45E4-AAB8-7B609BDEA0EE}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{72E6F8D0-3CC3-47BE-9835-BFB42142DD91}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{204012CE-9A3E-4408-A8BD-1FE81FFF7A06}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{23573D64-B7A2-42F7-9DE8-EBC3E3C0E83D}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,12 +277,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{F22E4068-97A6-48A4-888A-1F97F3C306BE}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{568ED711-9BDC-4385-A832-F6D4B929647B}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{C8509153-7894-455B-BD29-F9E78F092A5C}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{CED9F64D-909F-463A-9992-0AE603428F1E}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{22874FF6-FB08-4B5A-A605-22E82177A175}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{A95E9AC7-56C3-47A8-91C8-BD8D53F9A68C}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{8686A4B9-A895-4138-A4D1-F8D56A61C429}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{80CDFF52-347D-458C-A452-BD402B3B02AB}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D29B69DF-E2BA-40FA-A9D7-189B075722DE}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{E41A7375-C6C1-4828-B311-4C126CCAB6C3}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{ED4253DE-E3EA-465E-AADF-F5527FA8EC79}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{A36B14EF-E85A-479C-863A-5190CBA37A8A}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C4277C77-BC18-44D7-B8E0-902E68C3785A}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{ACE4CD2B-7D8E-4EC1-86D7-3B76C83B190C}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{9D58702F-5B01-4D58-BD5A-80A8FC7BB94A}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{25A8A60A-7895-461D-ACAC-07A50CBEC44C}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{4910F3CA-9D47-4785-B9A2-1A0E7E601125}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{D2B3B2F2-21F9-4041-95A5-D40A9C3CCCB9}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{459DD63B-03E9-4904-A431-1E3BFCD7AF6E}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{1338C392-3B2A-4888-B3F2-C06EAF114381}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -651,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{20946344-A7AB-4729-8182-12BB447ACAD7}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{8143F5F8-9FE4-4F80-9F79-22EA95534483}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{BBE8D487-A910-4B3B-8412-1B13A2AB4031}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{C8C97421-5F24-4FE9-9DF2-9820F6143A90}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{8ABD8268-573D-457E-8CF3-BB1C2F5C0F1B}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{AE6F1EE3-5D5A-4C63-B162-62A928891D9E}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{9066F849-0673-452E-8776-53A743F88036}">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{02EE910C-9FC3-4C8C-8EDE-4C93B7B91FFF}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -779,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{4E856B75-3652-4E01-8147-9AC1829AFA06}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{8142D5DC-36F0-4C56-845C-B1F6E60D05F3}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{5A12A5A0-A10C-48D8-8E19-15BB5F9C1F1C}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{6E159A0E-36C0-4170-8001-F0A4876D93B4}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{52A61B29-02DC-4EAF-8806-CD989386F203}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{EB2B48CF-8B62-41B7-BB5E-38F100193B09}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{29B4421D-7F30-4FA9-A123-10A35F60B9AC}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{9F4E12E3-E4AE-4738-BC5E-1185BB7DE383}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{72E08661-6A49-4277-B3C6-2D56F848B7D8}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{09A7CF1E-64CA-4C89-8921-C83353F133CF}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{3256090C-2851-4DF8-9CBB-727735064830}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{773E5905-C19A-4B07-BFC9-20743B474CE0}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{FD0C455A-7BDF-4A80-84B2-3B01C85C9729}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -988,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{8ADEC8A5-F560-49DC-A34A-22277C53A296}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{51169F5D-EDD7-4090-9D71-715149D1A4F3}">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{6797D9C5-925D-4F45-92C3-764FF98EEA05}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{E2E702AC-FF59-43C2-A258-E86E3506D3F6}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{BB5CC66D-6428-4FD4-ADC4-B0E8D978B64A}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{982B432E-452C-4FE0-9507-EB16B7BA9125}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{0DDFFCF4-EC65-42FE-B0A1-2852DFD71890}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{2CBF4BBF-C327-4ABE-A99D-DA2FCCE2897C}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{6EE90942-4D88-40F2-A6E3-81FC690C95C6}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{CC79EDB6-E85E-41ED-B0D6-AC586188297D}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{B638595C-E7A8-4E4C-A032-9B6228F39FBA}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{135834BC-7CFC-4F1F-A2C0-09F7EE113B7A}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{09E72E9F-B437-4567-BE60-89DDB338F790}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{B470DF67-9276-4E0B-9847-CDEA2D0A3C51}">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{8A136B88-AD34-4310-AAEE-C696A41DA5E5}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1243,12 +1242,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{60A9F742-24A0-46A2-A692-B42E3C495FBC}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{E54803AC-ACC6-4AA6-9ABD-87BF54CE581E}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{A7BA49D7-61D3-4AD0-A6B5-10BB5AE2012B}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{1874E878-81E9-4F4C-8767-A3A741A359B2}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1312,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{6CC1D156-0E9C-48B6-9CA1-4270A90601D4}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{7F9784B2-95AA-4D3C-9F8A-186C71A2290D}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{F117C087-427A-4C1D-84CC-D5D805E75C43}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{E36E6B5D-D23C-4398-8D42-41A6C2D72611}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{52F5D015-39EF-4AB9-8107-7D5430AF194F}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{500BA3DB-BED5-429B-A9C7-050508983C0A}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{B389FD3C-696B-41E9-AC08-AA626EE71DDD}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E5A3971D-3604-4388-A913-01FFF15028C3}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{CAC458DA-4EB8-47F0-AFDE-44B540B44831}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1456,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{CBBAA141-0AA6-42DA-B9B6-5E792BCCCDA1}">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{F3F7C32B-E774-449C-8329-D8289CC58ED3}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{23943110-7857-4336-AA9A-071A09D1D01A}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1504,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{42115EDE-F1B3-4197-9F90-A66563BF9389}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{EEB30DC1-A2C7-4B52-9959-D1492733BFA7}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{FC99A95A-60B8-45CD-BDA1-9323D98A40F2}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1552,7 +1551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{97A2C280-1C3A-4F48-9BBC-1BAABE59C6C0}">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{1AD44FF8-FCC2-47DD-92A1-1E3573041D82}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{10698414-88C7-4A9B-BF13-58FC7E0A1AC5}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{3E0EE616-E9B3-42BC-B9CA-03B4DB965CF8}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{2E8B62FC-EBDF-4449-A8C5-E9896C50B7E7}">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{A0FE1C3A-D9A5-46C8-AC28-B710F94A769F}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{B8A63146-59A9-4E65-8384-0B206459F1B5}">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1665,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{164895A6-211A-4FC3-87B0-AEC8DECCD84A}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1681,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{AB155686-7A1D-45CF-AF56-B1B095263182}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1718,7 +1717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{A58CACBE-BE60-41D8-887E-BB1983D6D56C}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1734,7 +1733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{0BD7FE14-E2EE-4E37-BD0B-DAFE3803B5B4}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{AC083978-315B-40C8-A7ED-A313994FC524}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1792,7 +1791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A703FB6E-A795-42C1-B711-BEFAB7F0EB76}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{65AEFFC0-2DD8-4326-B62A-3E1A4D14661C}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{2485323D-2CD9-418F-8593-11AD749EDC80}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1840,7 +1839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{D503CAEF-F8F9-45FE-9C0C-6B128EC39941}">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1856,7 +1855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{ECB04CDD-65FA-4792-B0BD-64484B55A8F4}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{E6F0B0FE-09C6-4362-B513-6428AD95C724}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1888,7 +1887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{638EE95C-B2C3-431B-B67B-484B5C46D910}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{A0EADB13-CD49-4123-99FF-8732711BE4AF}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{2A901759-0724-4390-9505-A1C309FDE101}">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1936,7 +1935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{5726AEBA-9D90-4357-83D7-28DA46E118BF}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{0B7677DA-1EBB-459C-A6E8-EDB2A176B649}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{E112F048-34EC-4AC1-8AE3-B6DD11C919EB}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1984,7 +1983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{5ACB97E3-E395-4EBA-B27D-5B35831C569D}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2000,7 +1999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{D2265317-E42A-4689-AC9B-886B182D29B3}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{A46C0117-9B11-4765-B7D2-89F2591D65FF}">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{021F7307-8AA2-4E46-8037-8564D5759F1D}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{EBA7BC71-68E4-4ECE-8EA4-FC4007B2978A}">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{2AE1B653-2332-4FD2-BF8D-05746F588B9D}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{B123D080-BC9F-4A3E-AD18-4920AE299917}">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{E517CFAD-5D3E-4904-B667-6429D9617901}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{187568A3-A0C8-40E6-A4CD-94E861DEB960}">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2128,7 +2127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{D4051D14-0FFE-4790-8C76-2679EC0609A9}">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2144,7 +2143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{A8308512-368C-4CE3-8F65-0FCDA48B38FD}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{E26439C6-70BA-40DA-A4E2-BCA24018C089}">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{3756B90E-FEC6-422E-B986-F014D73B5A34}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2192,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{61843A7C-5B35-4F4A-BF12-54BBD77F7A24}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{ECE10DCC-4E22-4A65-B4E3-B209832197FC}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2224,7 +2223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{DEB696CF-5A4E-492C-AF38-CBFEA70ED0B9}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{60247C11-72C8-4D2C-B3B5-6947DB3F24BD}">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{FB887B22-A06A-4DD6-BC74-8D755830940D}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{EDE64A72-B45C-4167-8382-9D3FED80A6B1}">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2288,7 +2287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{E4B7A4D2-CFB0-42CB-B3CC-979270056095}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2304,7 +2303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{45E951D1-5F39-4A96-9C2B-20BEBF70414E}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2320,7 +2319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{95EAFB5C-4A49-4654-9B9A-AB130755BB3C}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2336,7 +2335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{D34EA223-1F17-48EB-8F70-A941CBF98726}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2352,7 +2351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{94B0D2FB-E4F6-4B39-B0DF-9BE0449A0499}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2369,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{73464D75-83FF-42F9-9C95-E0365113035E}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{D95B998C-4C53-4D56-97C7-8F3183D6CA43}">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2401,7 +2400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{A49C2A3B-B644-4584-A134-5F4A334760A6}">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2417,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{7BCE498C-667C-407D-AB76-91441E2A18C9}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2433,7 +2432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{2DD449E1-6D6F-4B3B-8109-E43ED00725F2}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2449,7 +2448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{B8EDFB29-E6EB-4C88-8FE0-F66CB17DEEDE}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{1400FC82-E2F8-4F31-BE04-EA8888DCBDCC}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2481,7 +2480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{2719BFE6-CA82-4623-8869-6723C2FBB575}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2497,7 +2496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{CABFE425-E6D7-4021-9520-25616BAA2DEC}">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2513,7 +2512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{BDCF7E00-4861-4496-A328-3E30CFF5E7EB}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2529,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{E4B23179-06D5-41C9-B053-CF95B4424195}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2545,7 +2544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{4573679F-052A-4822-908F-3F43F41A42EF}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2561,7 +2560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{9A14DF1C-549E-437A-A1D8-8BCF43831922}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2577,7 +2576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{6D6A9D2C-2512-461C-85FB-93CC304C2E1F}">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{0F5E8372-0B0A-4E06-A748-321ACC1CC29C}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2609,7 +2608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{D7168267-ACD7-4234-B6ED-D402E872F99A}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2625,7 +2624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{966AD84E-802D-4D93-84A2-5F8C71056438}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{734A999A-AE84-4832-BB24-647548AAAB32}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2657,7 +2656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{63C46DB1-F6DA-4E8D-885B-577685F6BD12}">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2673,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{544B2C8B-F42B-4655-A248-4C1F95B8DEA8}">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2689,7 +2688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{3BE3559C-1EE1-4CBB-91B7-C245EC98298E}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2705,7 +2704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{C04C82F0-362A-4EBF-BC85-A2BA8FC68497}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2721,7 +2720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{1075033B-12DA-45E7-BCAE-B8EA89683C88}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2737,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{F8CD53C1-0A83-431C-BDF0-7B728EB4B48C}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2753,7 +2752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{2189E625-3F9E-4A1D-9372-25F2236B8D54}">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2769,7 +2768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{F5B13111-A1D2-429C-A259-AA3094EBFEE9}">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2785,7 +2784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{41B9A0B9-69ED-405B-800E-9B3ABC490918}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2806,12 +2805,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{629D0981-2336-40B3-A484-079B36C8C75B}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{EC858AA6-9201-4A7A-A145-B5E1B50A95BC}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2843,7 +2842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{790EE030-AE8F-40CA-9042-33D7F0059793}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2859,7 +2858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{85E7C2AE-6E1B-4148-99A1-B7E694FF93E7}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2875,23 +2874,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{F4BA3AF1-2D7B-4E91-B825-1BCDF02D42AB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-检查昨晚的推导，然后尝试新的推导方案。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{6629C53C-1F33-4B97-BCA7-A0F18C9091DB}">
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+遗憾，我去折腾excel了，烦死了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2907,7 +2906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{097EAB72-C8E3-44E9-B9BB-01890A9864A8}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2923,7 +2922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{713F10B0-DA65-488A-BBC0-DCEF919258A4}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2939,7 +2938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{B44B2AFE-072A-4590-A488-D0E22EB20EB9}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2955,7 +2954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{1D66520D-1778-4581-B174-888B8DEF8C74}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2971,23 +2970,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{EBC24977-23F7-4B49-A220-88ADDD9C9AEB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-在数值上实现。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{BBCA3F6D-D8C2-4593-8221-59160F5C68DC}">
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+原本是想在数值上实现的，但不得不重新推导了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3003,7 +3002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{083DEF33-E76E-47A3-80FE-D9C740F4069B}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3019,7 +3018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{978802CB-3C7A-4AAC-BD07-7331ED621D57}">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3035,7 +3034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{7ABA5D7A-E082-40F9-BE19-166217766390}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3051,7 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{4018BDA2-0BC2-450C-8DF0-DF7EC0E9CB46}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3088,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{2D23417D-E14E-4926-851F-9D1C192A32E9}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3125,7 +3124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{9561E3BC-27B3-4BD6-9259-497BB4E8E3DC}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3141,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{4DD070A5-E70A-4625-92B7-C19D6A7268FC}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3157,7 +3156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{A1FC3047-5E8D-4E17-928D-7297E0AF21EF}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3173,23 +3172,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{5AEC9F75-1D8D-4D41-A410-0F1D872B97AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A6087782-DC83-4326-99BF-A98F9151F8F2}">
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+和老师讨论一下我推导的结果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3205,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{C2BF2192-D3E1-417E-9294-E7F0D5B06D29}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3221,7 +3220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{47821561-6994-4DEE-B911-EBF4B209BFF9}">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3237,7 +3236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{349F3567-C501-4CC6-A9EF-11CD60C215C8}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3253,7 +3252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{3AD9A2A1-B2ED-421A-93DA-BF0BB2D49DCD}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3269,7 +3268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{0BCC079B-9EA9-43BC-9B80-56920CC3CBF5}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3285,23 +3284,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{8BC7B7F2-F97B-4AF3-AFCA-79BF53B714C9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{BBC52B69-6FB9-45BC-8EF1-08E7CC63BD61}">
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+可能要讨论多一会儿。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3317,7 +3316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{DA800B2C-A55D-4186-981D-52EA5E0B05ED}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3333,7 +3332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{B2FB8949-19CE-483E-BF66-4510B1C436FE}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3349,7 +3348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{6CFE4D2A-B20A-49B6-ACD2-7F8F54475A02}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3365,7 +3364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{1116AE42-16F5-448A-80B2-C1EC6DB482EA}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3381,23 +3380,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{F9A49FF1-FB8C-4C3C-9985-6B159B14868B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{2BFA4675-5099-4024-90C6-DE1DF057D504}">
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+开始构思论文，如果讨论的结果很满意的话。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3413,7 +3412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{B0AFB36C-69BC-41CC-82AC-FC17F304AFB4}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3429,7 +3428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{7917DDDA-5EE0-4732-80D1-C9A2A0E74E77}">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3445,7 +3444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{6CC04988-7B20-4B04-BCD1-3D6A7DF4D1BA}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3461,7 +3460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{E7303704-0386-4EE0-B4D5-903C4725C0BF}">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{1CEC18B6-691C-43C4-8A99-3EB5C48E3511}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3493,23 +3492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{9A03230F-2B0B-48EC-B5EF-B359909D6AB8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{284D87F2-AB54-47F6-82EC-33E90D04DE99}">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3525,7 +3508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{B02B0E06-FD59-41EE-971B-CCCC83549B0B}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3541,7 +3524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{04EE3073-EBBC-4CAE-93CA-2D38B45DFB87}">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3557,7 +3540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{3811B402-B182-4E3C-86F6-DDDC5F29DDE4}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3573,7 +3556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{CEEF18F4-07D8-4C3A-8369-F4C1366E0E05}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3589,7 +3572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{B65303A5-BFD7-4C5E-ABF0-7836DC7D6E65}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3605,23 +3588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{19249769-9C35-408C-B2B2-1EE17193CB1E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{14CE230F-0A4A-4679-A3D1-6DC600B520B0}">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3637,7 +3604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{12F05BE9-9460-4C5F-B8B0-89D52C5B3EEC}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3653,7 +3620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{28899A03-C524-428C-87C0-EBF317B40148}">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3669,7 +3636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{B6588A47-26D9-4B7F-BAEA-22A52746B779}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{25F4A3C9-F5D9-4E10-863D-D709723025B1}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3701,7 +3668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{7755A926-4BA1-4A04-AA4A-A484E0120A10}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{F346FF77-9DE0-41E6-B0F7-007BDA05B006}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3734,7 +3701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{EFE79779-CC78-4AAE-878C-4E71FEF7E047}">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{13CC537F-1A19-42BD-8CD0-7A374A39C15E}">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3766,7 +3733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{463A0211-F469-4726-97BD-5D691237E5BA}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3782,7 +3749,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{77D1EAE0-5282-4E64-8C01-1BA4DC3F1CD4}">
+    <comment ref="H16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3798,7 +3797,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{9CBE156E-345F-41FC-B07B-A9194E651C76}">
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3814,7 +3845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{2942BD82-FA8F-4CF3-BC14-F456C51DE7F0}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3830,103 +3861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{2D6C44EB-3176-403C-A44F-6265387CFD98}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{08EAD7B5-D83C-4DA1-BD8D-1690DDBC0298}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{2B83608E-1C72-4A30-9788-172759BA0EB2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{907D1BFA-2210-4AC1-854A-88AE3E3262A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{A6A72872-D1A0-4E82-B758-4C18B991D365}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{A2742014-3C01-41C6-9BE3-6411F1E5C8E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{429CC028-805E-4AB0-9B28-D6FE9B1EB423}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3942,7 +3877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{C9A88B3F-B548-4004-B825-00E7DEAA5A41}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3958,7 +3893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{6C0952B3-54C0-43AA-9CE0-9DB45233E46C}">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3974,7 +3909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{D69743FB-B875-4545-A7F4-EC7D2C444D01}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3990,7 +3925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{F584C6FB-DD12-42D2-94D8-17A6A480416A}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4006,7 +3941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{3D4CBBF2-E77E-4ABB-A390-4712961F6CF5}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4022,7 +3957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{788C762D-50D6-4A92-834B-85572D8B89F5}">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4038,7 +3973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{B58E96F9-D02D-4C39-9989-84026394DBA4}">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4054,7 +3989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{3951AB34-55A9-4287-A52B-A490423F3E33}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4070,7 +4005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{AF2DF5E5-4868-4732-A4A5-54D4E85B1B6C}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4086,7 +4021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{122600DC-97B5-4A3B-847D-7DDFE107C042}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{41B45AA6-DE93-4292-8504-3F885438A824}">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4118,7 +4053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{2266C123-99DA-48A2-B02E-90CE1B2668BA}">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4134,7 +4069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{8CDB15C4-0710-4D8A-9FF3-0B4A168F4F6C}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4155,7 +4090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="115">
   <si>
     <t>起床吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4606,10 +4541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>论文构思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4633,7 +4564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -5821,20 +5752,20 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6067,25 +5998,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6489,25 +6420,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6911,25 +6842,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7333,25 +7264,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7755,25 +7686,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94444444444444442</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8177,19 +8108,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8545,6 +8476,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8969,7 +8901,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.89915966386554635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9005,7 +8937,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89915966386554635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14569,12 +14501,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="gcolor"/>
     </sheetNames>
     <definedNames>
       <definedName name="GetColor"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14656,23 +14590,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14708,23 +14625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14900,7 +14800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -15507,40 +15407,40 @@
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>107</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -15548,38 +15448,38 @@
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="44">
+      <c r="B21" s="127"/>
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -15632,7 +15532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B858BE4D-A958-4A92-AFF6-7FCC8F8B741D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -16238,40 +16138,40 @@
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>9</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>96</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -16279,38 +16179,38 @@
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="44">
+      <c r="B21" s="127"/>
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.80672268907563016</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -16363,7 +16263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3B2817-2070-4B05-BEAF-CAB5E52BE09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -16969,40 +16869,40 @@
     </row>
     <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>98</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -17010,38 +16910,38 @@
     </row>
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="44">
+      <c r="B21" s="127"/>
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.82352941176470584</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17107,7 +17007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC00127-BD71-456B-9A49-96265D2B8131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
@@ -17712,40 +17612,40 @@
     </row>
     <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>11</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>99</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -17753,38 +17653,38 @@
     </row>
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="44">
+      <c r="B21" s="127"/>
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.83193277310924374</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17851,7 +17751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3895CE52-AC57-4A77-9A0C-E86D59520970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
@@ -18488,40 +18388,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>10</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>18</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>18</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>109</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -18529,38 +18429,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="44">
+      <c r="B22" s="127"/>
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0.865079365079365</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -18617,7 +18517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB50A21-AB56-4557-9773-B811EB186EC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -19254,40 +19154,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>4</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>55</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -19295,38 +19195,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="44">
+      <c r="B22" s="127"/>
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0.43650793650793646</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -19383,11 +19283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BF8E12-259B-4006-8B79-B0E1B9E1537E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19453,7 +19353,7 @@
       <c r="B3" s="112">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -19486,7 +19386,7 @@
       <c r="B4" s="112">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="49" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -19518,20 +19418,20 @@
       <c r="B5" s="112">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="38" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>35</v>
@@ -19552,26 +19452,26 @@
       <c r="B6" s="112">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>110</v>
+      <c r="C6" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="87"/>
@@ -19603,7 +19503,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="89"/>
@@ -19684,17 +19584,17 @@
       <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>50</v>
@@ -19712,17 +19612,17 @@
       <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>50</v>
@@ -19734,8 +19634,8 @@
       <c r="B12" s="112">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>111</v>
+      <c r="C12" s="125" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>18</v>
@@ -19765,8 +19665,8 @@
       <c r="B13" s="112">
         <v>0.6875</v>
       </c>
-      <c r="C13" s="127" t="s">
-        <v>112</v>
+      <c r="C13" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>18</v>
@@ -19796,8 +19696,8 @@
       <c r="B14" s="112">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C14" s="127" t="s">
-        <v>112</v>
+      <c r="C14" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>18</v>
@@ -19859,20 +19759,20 @@
       <c r="B16" s="112">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C16" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>112</v>
+      <c r="C16" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="127" t="s">
-        <v>112</v>
+      <c r="F16" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>50</v>
@@ -19893,20 +19793,20 @@
       <c r="B17" s="112">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C17" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>112</v>
+      <c r="C17" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="127" t="s">
-        <v>112</v>
+      <c r="F17" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="125" t="s">
+        <v>111</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>50</v>
@@ -20020,40 +19920,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -20061,38 +19961,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="44">
+      <c r="B22" s="127"/>
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -20149,7 +20049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C3:J25"/>
   <sheetViews>
@@ -20174,9 +20074,9 @@
       <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="11" t="e">
         <f ca="1">'1周'!$J$21</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -20302,9 +20202,9 @@
       <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="11" t="e">
         <f ca="1">'1周'!$J$21</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
@@ -20360,7 +20260,7 @@
       </c>
       <c r="D25" s="14" t="e">
         <f ca="1">AVERAGE(D4:D17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -20371,7 +20271,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0C00-000000000000}">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/2020-21second.xlsx
+++ b/2020-21second.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD7BED-F3C8-48D6-8AD4-91CAC6991323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1周" sheetId="43" r:id="rId1"/>
@@ -28,17 +29,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6周'!$B$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'9周 '!$B$2:$J$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -277,12 +278,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -426,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -544,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -586,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
       <text>
         <r>
           <rPr>
@@ -618,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
       <text>
         <r>
           <rPr>
@@ -650,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
       <text>
         <r>
           <rPr>
@@ -666,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
       <text>
         <r>
           <rPr>
@@ -682,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
       <text>
         <r>
           <rPr>
@@ -714,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -746,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -762,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -778,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -794,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -810,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -826,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000020000000}">
       <text>
         <r>
           <rPr>
@@ -842,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000021000000}">
       <text>
         <r>
           <rPr>
@@ -858,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000022000000}">
       <text>
         <r>
           <rPr>
@@ -874,7 +875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000023000000}">
       <text>
         <r>
           <rPr>
@@ -890,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000024000000}">
       <text>
         <r>
           <rPr>
@@ -906,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000025000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000026000000}">
       <text>
         <r>
           <rPr>
@@ -939,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000027000000}">
       <text>
         <r>
           <rPr>
@@ -955,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000028000000}">
       <text>
         <r>
           <rPr>
@@ -971,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000029000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1067,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1099,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1205,7 +1206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1242,12 +1243,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1407,7 +1408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1471,7 +1472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1503,7 +1504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1519,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1567,7 +1568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1616,7 +1617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1632,7 +1633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1648,7 +1649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1664,7 +1665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1680,7 +1681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1717,7 +1718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1733,7 +1734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1791,7 +1792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1807,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1823,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1839,7 +1840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1855,7 +1856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1871,7 +1872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1887,7 +1888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1903,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1919,7 +1920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1935,7 +1936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1951,7 +1952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1983,7 +1984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1999,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -2015,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -2031,7 +2032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -2047,7 +2048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000030000000}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000031000000}">
       <text>
         <r>
           <rPr>
@@ -2079,7 +2080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000032000000}">
       <text>
         <r>
           <rPr>
@@ -2095,7 +2096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000033000000}">
       <text>
         <r>
           <rPr>
@@ -2111,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000034000000}">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000035000000}">
       <text>
         <r>
           <rPr>
@@ -2143,7 +2144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000036000000}">
       <text>
         <r>
           <rPr>
@@ -2159,7 +2160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000037000000}">
       <text>
         <r>
           <rPr>
@@ -2175,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000038000000}">
       <text>
         <r>
           <rPr>
@@ -2191,7 +2192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000039000000}">
       <text>
         <r>
           <rPr>
@@ -2207,7 +2208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -2223,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -2239,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -2255,7 +2256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -2287,7 +2288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -2303,7 +2304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000040000000}">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000041000000}">
       <text>
         <r>
           <rPr>
@@ -2335,7 +2336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000042000000}">
       <text>
         <r>
           <rPr>
@@ -2351,7 +2352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000043000000}">
       <text>
         <r>
           <rPr>
@@ -2368,7 +2369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000044000000}">
       <text>
         <r>
           <rPr>
@@ -2384,7 +2385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000045000000}">
       <text>
         <r>
           <rPr>
@@ -2400,7 +2401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000046000000}">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000047000000}">
       <text>
         <r>
           <rPr>
@@ -2432,7 +2433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000048000000}">
       <text>
         <r>
           <rPr>
@@ -2448,7 +2449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000049000000}">
       <text>
         <r>
           <rPr>
@@ -2464,7 +2465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -2480,7 +2481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -2496,7 +2497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -2512,7 +2513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -2544,7 +2545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -2560,7 +2561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000050000000}">
       <text>
         <r>
           <rPr>
@@ -2576,7 +2577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000051000000}">
       <text>
         <r>
           <rPr>
@@ -2592,7 +2593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000052000000}">
       <text>
         <r>
           <rPr>
@@ -2608,7 +2609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000053000000}">
       <text>
         <r>
           <rPr>
@@ -2624,7 +2625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000054000000}">
       <text>
         <r>
           <rPr>
@@ -2640,7 +2641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000055000000}">
       <text>
         <r>
           <rPr>
@@ -2656,7 +2657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000056000000}">
       <text>
         <r>
           <rPr>
@@ -2672,7 +2673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000057000000}">
       <text>
         <r>
           <rPr>
@@ -2688,7 +2689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000058000000}">
       <text>
         <r>
           <rPr>
@@ -2704,7 +2705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000059000000}">
       <text>
         <r>
           <rPr>
@@ -2720,7 +2721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005A000000}">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005B000000}">
       <text>
         <r>
           <rPr>
@@ -2752,7 +2753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005C000000}">
       <text>
         <r>
           <rPr>
@@ -2768,7 +2769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005D000000}">
       <text>
         <r>
           <rPr>
@@ -2784,7 +2785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -2805,12 +2806,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2826,7 +2827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2842,7 +2843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2858,7 +2859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2874,7 +2875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2890,7 +2891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2906,7 +2907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2922,7 +2923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2938,7 +2939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2954,7 +2955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2970,7 +2971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2986,7 +2987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -3002,7 +3003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -3018,7 +3019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -3034,7 +3035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -3050,7 +3051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
       <text>
         <r>
           <rPr>
@@ -3087,7 +3088,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{73E161C9-2E85-47BA-A021-8842B7C97393}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{B243C8A6-BAFB-4ECB-8349-4F4A49FA1F46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
       <text>
         <r>
           <rPr>
@@ -3124,7 +3157,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C558CCFF-D288-4C59-9F45-12C2FDB369DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{9D04EB6E-6470-4E02-9A9E-1023E054A0DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
       <text>
         <r>
           <rPr>
@@ -3140,7 +3205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
       <text>
         <r>
           <rPr>
@@ -3156,7 +3221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
       <text>
         <r>
           <rPr>
@@ -3172,7 +3237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
       <text>
         <r>
           <rPr>
@@ -3188,7 +3253,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{D46F7D6A-E363-4DEE-9A8C-5F6F779B6667}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+处理一下文献翻译，最后勘误。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是那篇综述。一口气翻译完吧。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+得去1教进行开题报告。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000019000000}">
       <text>
         <r>
           <rPr>
@@ -3204,23 +3317,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是那篇综述。一口气翻译完吧。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+神界：原罪2，太好玩了，一支玩下去吧!以后的每周都玩这个。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+可能要讨论多一会儿。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A9059024-5895-4F21-8FEC-07A1B1501261}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+做好最后的准备就上传吧！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -3236,7 +3397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -3252,7 +3413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000020000000}">
       <text>
         <r>
           <rPr>
@@ -3268,7 +3429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000021000000}">
       <text>
         <r>
           <rPr>
@@ -3284,23 +3445,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-可能要讨论多一会儿。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{4E890EBE-FBF4-42B9-846C-32B34D3DD992}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+讨论完了就去实现一些代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000023000000}">
       <text>
         <r>
           <rPr>
@@ -3316,23 +3477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-得去1教进行开题报告。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000024000000}">
       <text>
         <r>
           <rPr>
@@ -3348,23 +3493,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-神界：原罪2，太好玩了，一支玩下去吧!以后的每周都玩这个。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000027000000}">
       <text>
         <r>
           <rPr>
@@ -3380,23 +3541,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-开始构思论文，如果讨论的结果很满意的话。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{277309F2-30DC-4FCB-A3B5-3B6CFDDBAB61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+八卦去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000029000000}">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -3428,7 +3605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -3444,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -3460,7 +3637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -3476,7 +3653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -3492,7 +3669,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{7872573E-29A9-4B86-B1DD-9683A03FD836}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+八卦去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -3508,7 +3701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000030000000}">
       <text>
         <r>
           <rPr>
@@ -3524,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000031000000}">
       <text>
         <r>
           <rPr>
@@ -3540,7 +3733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000032000000}">
       <text>
         <r>
           <rPr>
@@ -3556,7 +3749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000033000000}">
       <text>
         <r>
           <rPr>
@@ -3572,7 +3765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000034000000}">
       <text>
         <r>
           <rPr>
@@ -3588,103 +3781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000035000000}">
       <text>
         <r>
           <rPr>
@@ -3701,7 +3798,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{755D3773-871E-4493-A4CB-E67E905F830B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成了新的小量推导。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000036000000}">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000037000000}">
       <text>
         <r>
           <rPr>
@@ -3733,7 +3846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000038000000}">
       <text>
         <r>
           <rPr>
@@ -3749,7 +3862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000039000000}">
       <text>
         <r>
           <rPr>
@@ -3765,7 +3878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -3781,7 +3894,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{A951F08F-EC50-4584-A17D-47B20FDBF644}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成了新的小量推导。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -3797,7 +3926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -3813,7 +3942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -3829,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -3845,7 +3974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -3861,7 +3990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000040000000}">
       <text>
         <r>
           <rPr>
@@ -3877,7 +4006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000041000000}">
       <text>
         <r>
           <rPr>
@@ -3893,7 +4022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000042000000}">
       <text>
         <r>
           <rPr>
@@ -3909,7 +4038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000043000000}">
       <text>
         <r>
           <rPr>
@@ -3925,7 +4054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000044000000}">
       <text>
         <r>
           <rPr>
@@ -3941,7 +4070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000045000000}">
       <text>
         <r>
           <rPr>
@@ -3957,7 +4086,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{AECCB75A-6506-4A14-89C1-40F5223FF2B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+洗那双白鞋子。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000046000000}">
       <text>
         <r>
           <rPr>
@@ -3973,7 +4118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000047000000}">
       <text>
         <r>
           <rPr>
@@ -3989,7 +4134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000048000000}">
       <text>
         <r>
           <rPr>
@@ -4005,7 +4150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000049000000}">
       <text>
         <r>
           <rPr>
@@ -4021,7 +4166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -4037,7 +4182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -4053,7 +4198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -4069,7 +4214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -4090,7 +4235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="114">
   <si>
     <t>起床吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4541,10 +4686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文构思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4564,7 +4705,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -5390,7 +5531,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5755,6 +5896,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5765,7 +5909,7 @@
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="2"/>
+    <cellStyle name="样式 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5998,25 +6142,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,25 +6564,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6842,25 +6986,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7264,25 +7408,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7686,25 +7830,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.94444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,19 +8252,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8476,7 +8620,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8531,7 +8674,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8901,7 +9044,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.89915966386554635</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8937,7 +9080,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.89915966386554635</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14501,14 +14644,12 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="gcolor"/>
     </sheetNames>
     <definedNames>
       <definedName name="GetColor"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14590,6 +14731,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14625,6 +14783,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14800,7 +14975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -15407,40 +15582,40 @@
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42" t="e">
+      <c r="C20" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="42" t="e">
+        <v>14</v>
+      </c>
+      <c r="D20" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="E20" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="42" t="e">
+        <v>17</v>
+      </c>
+      <c r="F20" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G20" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="G20" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="H20" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="I20" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="43" t="e">
+        <v>13</v>
+      </c>
+      <c r="J20" s="43">
         <f ca="1">SUM(C20:I20)</f>
-        <v>#NAME?</v>
+        <v>107</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -15448,38 +15623,38 @@
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="44" t="e">
+      <c r="B21" s="128"/>
+      <c r="C21" s="44">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="44" t="e">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D21" s="44">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="44" t="e">
+        <v>1</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="44" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="44" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="44" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="45" t="e">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J21" s="45">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>0.89915966386554635</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -15532,7 +15707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -16138,40 +16313,40 @@
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42" t="e">
+      <c r="C20" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="D20" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="E20" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="F20" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G20" s="42" t="e">
+        <v>13</v>
+      </c>
+      <c r="G20" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="42" t="e">
+        <v>13</v>
+      </c>
+      <c r="H20" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="42" t="e">
+        <v>9</v>
+      </c>
+      <c r="I20" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="43" t="e">
+        <v>16</v>
+      </c>
+      <c r="J20" s="43">
         <f ca="1">SUM(C20:I20)</f>
-        <v>#NAME?</v>
+        <v>96</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -16179,38 +16354,38 @@
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="44" t="e">
+      <c r="B21" s="128"/>
+      <c r="C21" s="44">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="D21" s="44">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="44" t="e">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="44" t="e">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="44" t="e">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="45" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J21" s="45">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>0.80672268907563016</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -16263,7 +16438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -16869,40 +17044,40 @@
     </row>
     <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42" t="e">
+      <c r="C20" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="D20" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="42" t="e">
+        <v>14</v>
+      </c>
+      <c r="E20" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="42" t="e">
+        <v>14</v>
+      </c>
+      <c r="F20" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G20" s="42" t="e">
+        <v>12</v>
+      </c>
+      <c r="G20" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="42" t="e">
+        <v>13</v>
+      </c>
+      <c r="H20" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="42" t="e">
+        <v>13</v>
+      </c>
+      <c r="I20" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="43" t="e">
+        <v>17</v>
+      </c>
+      <c r="J20" s="43">
         <f ca="1">SUM(C20:I20)</f>
-        <v>#NAME?</v>
+        <v>98</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -16910,38 +17085,38 @@
     </row>
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="44" t="e">
+      <c r="B21" s="128"/>
+      <c r="C21" s="44">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="D21" s="44">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="44" t="e">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="E21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="44" t="e">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="44" t="e">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="44" t="e">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="44" t="e">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="45" t="e">
+        <v>1</v>
+      </c>
+      <c r="J21" s="45">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17007,7 +17182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
@@ -17612,40 +17787,40 @@
     </row>
     <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="46"/>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42" t="e">
+      <c r="C20" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="42" t="e">
+        <v>14</v>
+      </c>
+      <c r="D20" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="E20" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="F20" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G20" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="G20" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="42" t="e">
+        <v>12</v>
+      </c>
+      <c r="H20" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="42" t="e">
+        <v>11</v>
+      </c>
+      <c r="I20" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="43" t="e">
+        <v>16</v>
+      </c>
+      <c r="J20" s="43">
         <f ca="1">SUM(C20:I20)</f>
-        <v>#NAME?</v>
+        <v>99</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -17653,38 +17828,38 @@
     </row>
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="44" t="e">
+      <c r="B21" s="128"/>
+      <c r="C21" s="44">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="44" t="e">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="D21" s="44">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="44" t="e">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="44" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="44" t="e">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="H21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="44" t="e">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="45" t="e">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J21" s="45">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>0.83193277310924374</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17751,7 +17926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
@@ -18388,40 +18563,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="e">
+      <c r="C21" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="D21" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="42" t="e">
+        <v>17</v>
+      </c>
+      <c r="E21" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="F21" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="42" t="e">
+        <v>10</v>
+      </c>
+      <c r="G21" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="42" t="e">
+        <v>15</v>
+      </c>
+      <c r="H21" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="42" t="e">
+        <v>18</v>
+      </c>
+      <c r="I21" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="43" t="e">
+        <v>18</v>
+      </c>
+      <c r="J21" s="43">
         <f ca="1">SUM(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>109</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -18429,38 +18604,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="44" t="e">
+      <c r="B22" s="128"/>
+      <c r="C22" s="44">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D22" s="44" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" s="44" t="e">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" s="44" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G22" s="44" t="e">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="44" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="44" t="e">
+        <v>1</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="45" t="e">
+        <v>1</v>
+      </c>
+      <c r="J22" s="45">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>#NAME?</v>
+        <v>0.865079365079365</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -18517,11 +18692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G11:G12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19154,40 +19329,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="e">
+      <c r="C21" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="42" t="e">
+        <v>16</v>
+      </c>
+      <c r="D21" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="42" t="e">
+        <v>14</v>
+      </c>
+      <c r="E21" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="42" t="e">
+        <v>12</v>
+      </c>
+      <c r="F21" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="42" t="e">
+        <v>9</v>
+      </c>
+      <c r="G21" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="42" t="e">
+        <v>4</v>
+      </c>
+      <c r="H21" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="J21" s="43">
         <f ca="1">SUM(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>55</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -19195,38 +19370,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="44" t="e">
+      <c r="B22" s="128"/>
+      <c r="C22" s="44">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D22" s="44" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" s="44" t="e">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" s="44" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G22" s="44" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="44" t="e">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="J22" s="45">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>#NAME?</v>
+        <v>0.43650793650793646</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -19283,11 +19458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19425,13 +19600,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>35</v>
@@ -19459,19 +19634,19 @@
         <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="87"/>
@@ -19484,17 +19659,17 @@
       <c r="B7" s="112">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="36" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>62</v>
+      <c r="E7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>63</v>
@@ -19503,7 +19678,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="89"/>
@@ -19516,17 +19691,17 @@
       <c r="B8" s="112">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="36" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>62</v>
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>63</v>
@@ -19550,7 +19725,7 @@
       <c r="B9" s="112">
         <v>0.5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -19578,11 +19753,11 @@
       <c r="B10" s="112">
         <v>0.5625</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
+      <c r="D10" s="125" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="125" t="s">
         <v>49</v>
@@ -19594,7 +19769,7 @@
         <v>18</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>50</v>
@@ -19606,11 +19781,11 @@
       <c r="B11" s="112">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
+      <c r="D11" s="125" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="125" t="s">
         <v>49</v>
@@ -19622,7 +19797,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>50</v>
@@ -19634,8 +19809,8 @@
       <c r="B12" s="112">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C12" s="125" t="s">
-        <v>110</v>
+      <c r="C12" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>18</v>
@@ -19665,8 +19840,8 @@
       <c r="B13" s="112">
         <v>0.6875</v>
       </c>
-      <c r="C13" s="125" t="s">
-        <v>111</v>
+      <c r="C13" s="124" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>18</v>
@@ -19696,8 +19871,8 @@
       <c r="B14" s="112">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C14" s="125" t="s">
-        <v>111</v>
+      <c r="C14" s="124" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>18</v>
@@ -19727,7 +19902,7 @@
       <c r="B15" s="112">
         <v>0.75</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -19759,20 +19934,20 @@
       <c r="B16" s="112">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C16" s="125" t="s">
-        <v>111</v>
+      <c r="C16" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>50</v>
@@ -19793,20 +19968,20 @@
       <c r="B17" s="112">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C17" s="125" t="s">
-        <v>111</v>
+      <c r="C17" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>50</v>
@@ -19825,7 +20000,7 @@
       <c r="B18" s="112">
         <v>0.875</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -19857,11 +20032,11 @@
       <c r="B19" s="112">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>50</v>
+      <c r="D19" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>50</v>
@@ -19889,7 +20064,7 @@
       <c r="B20" s="118">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="121" t="s">
@@ -19920,40 +20095,40 @@
     </row>
     <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="46"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42" t="e">
+      <c r="C21" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="42" t="e">
+        <v>13</v>
+      </c>
+      <c r="D21" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="E21" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="F21" s="42">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="42" t="e">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="43" t="e">
+        <v>0</v>
+      </c>
+      <c r="J21" s="43">
         <f ca="1">SUM(C21:I21)</f>
-        <v>#NAME?</v>
+        <v>13</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -19961,38 +20136,38 @@
     </row>
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="44" t="e">
+      <c r="B22" s="128"/>
+      <c r="C22" s="44">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D22" s="44" t="e">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="E22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="G22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="44" t="e">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="45" t="e">
+        <v>0</v>
+      </c>
+      <c r="J22" s="45">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>#NAME?</v>
+        <v>0.10317460317460317</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -20049,7 +20224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C3:J25"/>
   <sheetViews>
@@ -20074,9 +20249,9 @@
       <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11" t="e">
+      <c r="D4" s="11">
         <f ca="1">'1周'!$J$21</f>
-        <v>#NAME?</v>
+        <v>0.89915966386554635</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -20202,9 +20377,9 @@
       <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11" t="e">
+      <c r="D16" s="11">
         <f ca="1">'1周'!$J$21</f>
-        <v>#NAME?</v>
+        <v>0.89915966386554635</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
@@ -20260,7 +20435,7 @@
       </c>
       <c r="D25" s="14" t="e">
         <f ca="1">AVERAGE(D4:D17)</f>
-        <v>#NAME?</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -20271,7 +20446,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0700-000000000000}">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/2020-21second.xlsx
+++ b/2020-21second.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD7BED-F3C8-48D6-8AD4-91CAC6991323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1周" sheetId="43" r:id="rId1"/>
@@ -29,17 +28,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6周'!$B$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'9周 '!$B$2:$J$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,12 +277,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -545,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000011000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000012000000}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000013000000}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000014000000}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -651,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000015000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000016000000}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000017000000}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -699,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000018000000}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000019000000}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001A000000}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001B000000}">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001C000000}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -779,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001D000000}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001E000000}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00001F000000}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000020000000}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000021000000}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000022000000}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000023000000}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000024000000}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000025000000}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000026000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000027000000}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000028000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000029000000}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -988,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002A000000}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002B000000}">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002C000000}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002D000000}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002E000000}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00002F000000}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000030000000}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000031000000}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000032000000}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000033000000}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000034000000}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000035000000}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1190,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000036000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000037000000}">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000038000000}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1243,12 +1242,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1296,7 +1295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1312,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1440,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1456,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1504,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1552,7 +1551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1568,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1665,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001B000000}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1681,7 +1680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001C000000}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1718,7 +1717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001D000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1734,7 +1733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001E000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001F000000}">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1792,7 +1791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000020000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000021000000}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000022000000}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1840,7 +1839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000023000000}">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1856,7 +1855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000024000000}">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1872,7 +1871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000025000000}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1888,7 +1887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000026000000}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000027000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000028000000}">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1936,7 +1935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000029000000}">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1952,7 +1951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002A000000}">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1968,7 +1967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002B000000}">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1984,7 +1983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002C000000}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2000,7 +1999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002D000000}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002E000000}">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2032,7 +2031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002F000000}">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2048,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000030000000}">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2064,7 +2063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000031000000}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000032000000}">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000033000000}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2112,7 +2111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000034000000}">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2128,7 +2127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000035000000}">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2144,7 +2143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000036000000}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2160,7 +2159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000037000000}">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2176,7 +2175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000038000000}">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2192,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000039000000}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003A000000}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2224,7 +2223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003B000000}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003C000000}">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2256,7 +2255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003D000000}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003E000000}">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2288,7 +2287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00003F000000}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2304,7 +2303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000040000000}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2320,7 +2319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000041000000}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2336,7 +2335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000042000000}">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2352,7 +2351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000043000000}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2369,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000044000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2385,7 +2384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000045000000}">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2401,7 +2400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000046000000}">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2417,7 +2416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000047000000}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2433,7 +2432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000048000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2449,7 +2448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000049000000}">
+    <comment ref="I16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004A000000}">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2481,7 +2480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004B000000}">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2497,7 +2496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004C000000}">
+    <comment ref="G17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2513,7 +2512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004D000000}">
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2529,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004E000000}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2545,7 +2544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00004F000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2561,7 +2560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000050000000}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2577,7 +2576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000051000000}">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000052000000}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2609,7 +2608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000053000000}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2625,7 +2624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000054000000}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000055000000}">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2657,7 +2656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000056000000}">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2673,7 +2672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000057000000}">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2689,7 +2688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000058000000}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2705,7 +2704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000059000000}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2721,7 +2720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005A000000}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2737,7 +2736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005B000000}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2753,7 +2752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005C000000}">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2769,7 +2768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005D000000}">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2785,7 +2784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00005E000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2806,12 +2805,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +2826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2843,7 +2842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2859,7 +2858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2875,7 +2874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2891,7 +2890,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2907,7 +2922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2923,7 +2938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2939,7 +2954,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+看量子力学放松一下，当然是Dirac的咯，一口气推完置换部分吧</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+原本是想在数值上实现的，但不得不重新推导了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2955,39 +3018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-看量子力学放松一下，当然是Dirac的咯，一口气推完置换部分吧</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-原本是想在数值上实现的，但不得不重新推导了。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3003,7 +3034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3019,39 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-Dirac的量子力学讲义。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-Dirac的量子力学讲义。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3088,7 +3087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{73E161C9-2E85-47BA-A021-8842B7C97393}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3104,7 +3103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{B243C8A6-BAFB-4ECB-8349-4F4A49FA1F46}">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3120,7 +3119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3157,7 +3156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{C558CCFF-D288-4C59-9F45-12C2FDB369DC}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3173,7 +3172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{9D04EB6E-6470-4E02-9A9E-1023E054A0DC}">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3189,7 +3188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3205,7 +3204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3221,7 +3220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3237,7 +3236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3253,7 +3252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{D46F7D6A-E363-4DEE-9A8C-5F6F779B6667}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3269,39 +3268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是那篇综述。一口气翻译完吧。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-得去1教进行开题报告。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000019000000}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3317,7 +3284,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001A000000}">
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3333,7 +3332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001B000000}">
+    <comment ref="I10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3349,7 +3348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001C000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3365,7 +3364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A9059024-5895-4F21-8FEC-07A1B1501261}">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3381,23 +3380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-得去1教进行开题报告。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00001F000000}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3413,7 +3396,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000020000000}">
+    <comment ref="F11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3429,7 +3444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000021000000}">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3445,7 +3460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{4E890EBE-FBF4-42B9-846C-32B34D3DD992}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3461,7 +3476,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000023000000}">
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+和老师讨论之后，对任务进一步推进。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3477,7 +3508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000024000000}">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3493,7 +3524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000025000000}">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3509,7 +3540,87 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000026000000}">
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+八卦去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成一些和哈密顿量相关的事情。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3525,7 +3636,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000027000000}">
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3541,7 +3668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000028000000}">
+    <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3557,7 +3684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{277309F2-30DC-4FCB-A3B5-3B6CFDDBAB61}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3573,7 +3700,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000029000000}">
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+如果没有其它事情，我需要进行一下代码的维护。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3589,7 +3748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002A000000}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3605,39 +3764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002D000000}">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3653,7 +3780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002E000000}">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3669,119 +3796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{7872573E-29A9-4B86-B1DD-9683A03FD836}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-八卦去了。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-尝试非周期方向，各种尝试。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000035000000}">
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3798,7 +3813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{755D3773-871E-4493-A4CB-E67E905F830B}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3814,7 +3829,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000036000000}">
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+代码维护应该还是要花一些时间。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3830,7 +3861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000037000000}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3846,7 +3877,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000038000000}">
+    <comment ref="H16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成了新的小量推导。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+维护完了可以联系王沛正，谈谈网站的事情。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3862,7 +3957,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000039000000}">
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3878,7 +3989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003A000000}">
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3894,119 +4005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{A951F08F-EC50-4584-A17D-47B20FDBF644}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-完成了新的小量推导。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-重新写代码。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00003F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-还是玩那个游戏。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000040000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="华文楷体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-清理伤口。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000041000000}">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4022,7 +4021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000042000000}">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4038,7 +4037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000043000000}">
+    <comment ref="G18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4054,7 +4053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000044000000}">
+    <comment ref="H18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4070,7 +4069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000045000000}">
+    <comment ref="I18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4086,7 +4085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{AECCB75A-6506-4A14-89C1-40F5223FF2B7}">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000046000000}">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4118,7 +4117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000047000000}">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4134,7 +4133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000048000000}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4150,7 +4149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000049000000}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4166,7 +4165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004A000000}">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4182,7 +4181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004B000000}">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4198,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004C000000}">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4214,7 +4213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00004D000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4235,7 +4234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="115">
   <si>
     <t>起床吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4701,11 +4700,15 @@
     <t>联系好友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>代码维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -5909,7 +5912,7 @@
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -8620,6 +8623,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8674,10 +8678,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.72222222222222221</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -14731,23 +14735,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14783,23 +14770,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14975,7 +14945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -15707,7 +15677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -16438,7 +16408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -17182,7 +17152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
@@ -17926,7 +17896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
@@ -18692,7 +18662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -19458,11 +19428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19531,7 +19501,7 @@
       <c r="C3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="70" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -19564,7 +19534,7 @@
       <c r="C4" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -19759,11 +19729,11 @@
       <c r="D10" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>69</v>
+      <c r="E10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>18</v>
@@ -19787,11 +19757,11 @@
       <c r="D11" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>69</v>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>18</v>
@@ -19846,8 +19816,8 @@
       <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>18</v>
+      <c r="E13" s="125" t="s">
+        <v>110</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>18</v>
@@ -19875,10 +19845,10 @@
         <v>110</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>18</v>
@@ -19937,8 +19907,8 @@
       <c r="C16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="125" t="s">
-        <v>110</v>
+      <c r="D16" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>102</v>
@@ -19971,8 +19941,8 @@
       <c r="C17" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="125" t="s">
-        <v>110</v>
+      <c r="D17" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>102</v>
@@ -20032,7 +20002,7 @@
       <c r="B19" s="112">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="49" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -20100,11 +20070,11 @@
       </c>
       <c r="C21" s="42">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="42">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="42">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
@@ -20139,11 +20109,11 @@
       <c r="B22" s="128"/>
       <c r="C22" s="44">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.72222222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D22" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E22" s="44">
         <f t="shared" ca="1" si="0"/>
@@ -20224,7 +20194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C3:J25"/>
   <sheetViews>
@@ -20446,7 +20416,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0700-000000000000}">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF0070C0"/>
           <x14:colorNegative rgb="FF000000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/2020-21second.xlsx
+++ b/2020-21second.xlsx
@@ -2902,7 +2902,7 @@
             <charset val="134"/>
           </rPr>
           <t>作者:
-Dirac的量子力学原理。</t>
+Dirac的量子力学原理。可惜我看不进去了。</t>
         </r>
       </text>
     </comment>
@@ -3600,7 +3600,7 @@
             <charset val="134"/>
           </rPr>
           <t>作者:
-完成一些和哈密顿量相关的事情。</t>
+如果没有其它事情，我需要进行一下代码的维护。</t>
         </r>
       </text>
     </comment>
@@ -3937,7 +3937,7 @@
             <charset val="134"/>
           </rPr>
           <t>作者:
-维护完了可以联系王沛正，谈谈网站的事情。</t>
+通过微扰过后的频率得到BIC</t>
         </r>
       </text>
     </comment>
@@ -6145,25 +6145,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,25 +6567,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6989,25 +6989,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,25 +7411,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6470588235294118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7833,25 +7833,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94444444444444442</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8255,19 +8255,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -8678,10 +8678,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -9048,7 +9048,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.89915966386554635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9084,7 +9084,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89915966386554635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14648,12 +14648,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="color"/>
     </sheetNames>
     <definedNames>
       <definedName name="GetColor"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15555,37 +15557,37 @@
       <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>107</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -15594,37 +15596,37 @@
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
       <c r="B21" s="128"/>
-      <c r="C21" s="44">
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -16286,37 +16288,37 @@
       <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>9</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>96</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -16325,37 +16327,37 @@
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
       <c r="B21" s="128"/>
-      <c r="C21" s="44">
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.80672268907563016</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17017,37 +17019,37 @@
       <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>13</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>98</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -17056,37 +17058,37 @@
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
       <c r="B21" s="128"/>
-      <c r="C21" s="44">
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.82352941176470584</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -17760,37 +17762,37 @@
       <c r="B20" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C19, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E19, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="F20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="G20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G19, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="H20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H19, 0, 1) + NOW()*0</f>
-        <v>11</v>
-      </c>
-      <c r="I20" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I20" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I19, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="J20" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J20" s="43" t="e">
         <f ca="1">SUM(C20:I20)</f>
-        <v>99</v>
+        <v>#NAME?</v>
       </c>
       <c r="K20" s="6"/>
       <c r="M20" s="2"/>
@@ -17799,37 +17801,37 @@
     <row r="21" spans="1:22" ht="17.25" thickBot="1">
       <c r="A21" s="46"/>
       <c r="B21" s="128"/>
-      <c r="C21" s="44">
+      <c r="C21" s="44" t="e">
         <f ca="1">C20/COUNTA(C3:C19)*100%</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="D21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" ref="D21:I21" ca="1" si="0">D20/COUNTA(D3:D19)*100%</f>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="E21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="F21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="G21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="H21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="I21" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="J21" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="45" t="e">
         <f ca="1">AVERAGE(C21:I21)</f>
-        <v>0.83193277310924374</v>
+        <v>#NAME?</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -18536,37 +18538,37 @@
       <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>17</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>10</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>15</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>18</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>18</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>109</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -18575,37 +18577,37 @@
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="128"/>
-      <c r="C22" s="44">
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0.865079365079365</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -19302,37 +19304,37 @@
       <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>16</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>14</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>4</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>55</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -19341,37 +19343,37 @@
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="128"/>
-      <c r="C22" s="44">
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0.43650793650793646</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -19432,7 +19434,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19566,7 +19568,7 @@
       <c r="C5" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="49" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -19600,7 +19602,7 @@
       <c r="C6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="49" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -19632,7 +19634,7 @@
       <c r="C7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="19" t="s">
@@ -19664,7 +19666,7 @@
       <c r="C8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -19698,7 +19700,7 @@
       <c r="C9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -19726,7 +19728,7 @@
       <c r="C10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="124" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -19754,7 +19756,7 @@
       <c r="C11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="123" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -19782,7 +19784,7 @@
       <c r="C12" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -19813,8 +19815,8 @@
       <c r="C13" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>18</v>
+      <c r="D13" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="E13" s="125" t="s">
         <v>110</v>
@@ -19844,7 +19846,7 @@
       <c r="C14" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="39" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="125" t="s">
@@ -19875,7 +19877,7 @@
       <c r="C15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -19907,7 +19909,7 @@
       <c r="C16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="38" t="s">
         <v>114</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -19941,8 +19943,8 @@
       <c r="C17" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>114</v>
+      <c r="D17" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>102</v>
@@ -20068,37 +20070,37 @@
       <c r="B21" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
-        <v>12</v>
-      </c>
-      <c r="D21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="42">
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
         <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
         <f ca="1">SUM(C21:I21)</f>
-        <v>13</v>
+        <v>#NAME?</v>
       </c>
       <c r="K21" s="6"/>
       <c r="M21" s="2"/>
@@ -20107,37 +20109,37 @@
     <row r="22" spans="1:22" ht="17.25" thickBot="1">
       <c r="A22" s="46"/>
       <c r="B22" s="128"/>
-      <c r="C22" s="44">
+      <c r="C22" s="44" t="e">
         <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
         <f ca="1">AVERAGE(C22:I22)</f>
-        <v>0.10317460317460317</v>
+        <v>#NAME?</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -20219,9 +20221,9 @@
       <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="11" t="e">
         <f ca="1">'1周'!$J$21</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -20347,9 +20349,9 @@
       <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="11" t="e">
         <f ca="1">'1周'!$J$21</f>
-        <v>0.89915966386554635</v>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
@@ -20405,7 +20407,7 @@
       </c>
       <c r="D25" s="14" t="e">
         <f ca="1">AVERAGE(D4:D17)</f>
-        <v>#REF!</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/2020-21second.xlsx
+++ b/2020-21second.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1周" sheetId="43" r:id="rId1"/>
@@ -14,12 +14,14 @@
     <sheet name="5周" sheetId="63" r:id="rId5"/>
     <sheet name="6周" sheetId="64" r:id="rId6"/>
     <sheet name="9周 " sheetId="65" r:id="rId7"/>
-    <sheet name="合计" sheetId="2" r:id="rId8"/>
+    <sheet name="10周 " sheetId="66" r:id="rId8"/>
+    <sheet name="合计" sheetId="2" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'10周 '!$B$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1周'!$B$2:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2周'!$B$2:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3周'!$B$2:$J$21</definedName>
@@ -28,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6周'!$B$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'9周 '!$B$2:$J$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -4233,8 +4235,1384 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+遗憾，我去折腾excel了，烦死了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。可惜我看不进去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学讲义。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。可惜我看不进去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+看量子力学放松一下，当然是Dirac的咯，一口气推完置换部分吧</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+原本是想在数值上实现的，但不得不重新推导了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学讲义。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学原理。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>规划下今天和下周的计划吧，顺便一说，自己的伤口还是不太妙。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+和老师讨论一下我推导的结果。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+处理一下文献翻译，最后勘误。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+神界：原罪2，太好玩了，一支玩下去吧!以后的每周都玩这个。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+可能要讨论多一会儿。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+做好最后的准备就上传吧！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+神界：原罪2，太好玩了，一支玩下去吧!以后的每周都玩这个。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+讨论完了就去实现一些代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+和老师讨论之后，对任务进一步推进。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+八卦去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+如果没有其它事情，我需要进行一下代码的维护。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+八卦去了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+如果没有其它事情，我需要进行一下代码的维护。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+给出辐射偏振与波矢的变化关系。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+当考虑二维布里渊区的时候，连接边界条件。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+尝试非周期方向，各种尝试。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+我想去吃豆花饭，但晚上是不是没有了呀。
+还要去买一支牙膏回来。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成了新的小量推导。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+写出BIC点处的波函数。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+构思整个论文框架。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成目录。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+完成了新的小量推导。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+写出BIC点处的波函数。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+必须开始着笔开写了。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+开始写第一节。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+重新写代码。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+回寝室的时候去买两个7号电池。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+清理伤口。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+洗那双白鞋子。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+看看那边网上找的变分法。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+Dirac的量子力学。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+还是玩那个游戏。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+洗那双白鞋子。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="华文楷体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+2篇听力，2篇阅读。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="118">
   <si>
     <t>起床吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4704,6 +6082,18 @@
     <t>代码维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>手臂有氧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推导公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4965,7 +6355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -5524,6 +6914,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </left>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </right>
+      <top style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashDotDot">
+        <color theme="3" tint="0.39970091860713525"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5534,7 +7004,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5906,6 +7376,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6935,6 +8444,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7357,6 +8867,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7779,6 +9290,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8201,6 +9713,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8903,6 +10416,429 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1400"/>
+              <a:t>第</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1400"/>
+              <a:t>周</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+              <a:t>任务</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1400"/>
+              <a:t>完成度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2797658997834756"/>
+          <c:y val="3.1013336322688656E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>完成度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10周 '!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10周 '!$C$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC0A-4231-B6FE-66AF93861308}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="233843248"/>
+        <c:axId val="234778464"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="233843248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234778464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="234778464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233843248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:glow rad="101600">
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+          <a:alpha val="60000"/>
+        </a:schemeClr>
+      </a:glow>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
@@ -9584,6 +11520,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -13561,6 +15537,574 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14604,6 +17148,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>118996</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263515</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B87393-D821-4A10-B20F-409EA1544322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38757</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -19433,7 +22020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -20196,6 +22783,770 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5">
+      <c r="A2" s="46"/>
+      <c r="B2" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="130">
+        <v>44319</v>
+      </c>
+      <c r="D2" s="130">
+        <v>44320</v>
+      </c>
+      <c r="E2" s="130">
+        <v>44321</v>
+      </c>
+      <c r="F2" s="130">
+        <v>44322</v>
+      </c>
+      <c r="G2" s="130">
+        <v>44323</v>
+      </c>
+      <c r="H2" s="130">
+        <v>44324</v>
+      </c>
+      <c r="I2" s="131">
+        <v>44325</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5">
+      <c r="A3" s="46"/>
+      <c r="B3" s="132">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="132">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A5" s="46"/>
+      <c r="B5" s="132">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5">
+      <c r="A6" s="46"/>
+      <c r="B6" s="132">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="132">
+        <v>0.4375</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="132">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="46"/>
+      <c r="B9" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="46"/>
+      <c r="B10" s="132">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="46"/>
+      <c r="B11" s="132">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="A12" s="46"/>
+      <c r="B12" s="132">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5">
+      <c r="A13" s="46"/>
+      <c r="B13" s="132">
+        <v>0.6875</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="46"/>
+      <c r="B14" s="132">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5">
+      <c r="A15" s="46"/>
+      <c r="B15" s="132">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5">
+      <c r="A16" s="46"/>
+      <c r="B16" s="132">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" ht="16.5">
+      <c r="A17" s="46"/>
+      <c r="B17" s="132">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="47"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="132">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="133" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="132">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="137">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="140" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
+      <c r="A21" s="46"/>
+      <c r="B21" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,C3:C20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,D3:D20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,E3:E20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,F3:F20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,G3:G20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,H3:H20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I21" s="42" t="e">
+        <f ca="1">[1]!GetColor(K6,I3:I20, 0, 1) + NOW()*0</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J21" s="43" t="e">
+        <f ca="1">SUM(C21:I21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="44" t="e">
+        <f t="shared" ref="C22:I22" ca="1" si="0">C21/COUNTA(C3:C20)*100%</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="I22" s="44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="J22" s="45" t="e">
+        <f ca="1">AVERAGE(C22:I22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="V22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+  </sheetData>
+  <dataConsolidate function="count">
+    <dataRefs count="1">
+      <dataRef ref="C3:C20" sheet="1周" r:id="rId1"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="1">
+    <mergeCell ref="B21:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C3:J25"/>
